--- a/docs/ST1a/ST1a_01.08.24_output.xlsx
+++ b/docs/ST1a/ST1a_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731658723.4992468</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731658726.5360434</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731658723.4992468.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731658726.5360434.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.74</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731658726.5519729</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731658730.5657043</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731658726.5519729.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731658730.5657043.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.89</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.82</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731658736.3286784</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731658738.5488963</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731658736.3286784.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731658738.5488963.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.82</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>289.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4200000000000159</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731658754.5045445</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731658757.9733386</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658754.5045445.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658757.9733386.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.49</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.64</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731658760.5925372</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731658771.1477573</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658760.5925372.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658771.1477573.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.46</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.25</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731658771.1637144</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731658776.7335858</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658771.1637144.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658776.7335858.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.25</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.77</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.4799999999999898</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731658776.749576</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731658778.2876515</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658776.749576.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658778.2876515.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.77</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>132.26</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5100000000000193</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731658800.2567744</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731658816.6626055</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658800.2567744.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658816.6626055.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6726</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6681</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>45</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731658819.6425338</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731658820.0910597</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658819.6425338.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658820.0910597.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>513.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>516.65</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>2.850000000000023</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731658822.1127918</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731658828.0335104</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658822.1127918.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658828.0335104.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>515.75</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>514.65</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.100000000000023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731658837.5311086</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731658839.6633482</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658837.5311086.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658839.6633482.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>512.7</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>512.15</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5500000000000682</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731658839.8236492</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731658853.0586524</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658839.8236492.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658853.0586524.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>512.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>506</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-6.200000000000045</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-1.21</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731658853.9916484</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731658856.7318132</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731658853.9916484.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731658856.7318132.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>233.13</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>232.72</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731658856.7477703</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731658861.8015862</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731658856.7477703.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731658861.8015862.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>232.72</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>233.07</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731658877.2315881</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731658881.6498904</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731658877.2315881.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731658881.6498904.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>231.48</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>229.54</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.939999999999998</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -1319,95 +1425,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731658884.442304</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731658884.442304.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731658884.442304.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>229.95</v>
       </c>
-      <c r="J18" t="n">
-        <v>229.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>229.85</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731658885.049841</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731658885.3826656</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658885.049841.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658885.3826656.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1041.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1049</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>7.599999999999909</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731658887.8549685</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731658892.7904642</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658887.8549685.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658892.7904642.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1047.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731658892.8064218</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731658896.8801694</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658892.8064218.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658896.8801694.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1047.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1042.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>4.799999999999955</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731658901.7776563</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731658904.6208491</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658901.7776563.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658904.6208491.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1039.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1037.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731658908.1689737</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731658916.1558394</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658908.1689737.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658916.1558394.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1036.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1028.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>8.399999999999864</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -1623,43 +1765,49 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731658918.5640442</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731658918.5640442.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731658918.5640442.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1667,95 +1815,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731658919.1106737</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731658919.1106737.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731658919.1106737.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>11.869</v>
       </c>
-      <c r="J25" t="n">
-        <v>11.869</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>11.864</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.004999999999999005</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731658921.1198955</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731658926.7261698</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731658921.1198955.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731658926.7261698.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>130.16</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>129.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.6599999999999966</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731658938.801057</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731658944.8000083</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731658938.801057.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731658944.8000083.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>129.66</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>128.84</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.8199999999999932</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731658953.4539104</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731658953.6691842</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658953.4539104.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658953.6691842.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>165.66</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>166.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731658955.9607894</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731658959.39703</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658955.9607894.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658959.39703.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>165.88</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>166.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731658964.4784813</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731658970.4439042</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658964.4784813.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658970.4439042.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>166.52</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>166.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.3200000000000216</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731658973.4679914</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731658979.5546527</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658973.4679914.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731658979.5546527.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>166.3</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>165.24</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-1.060000000000002</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -2023,95 +2213,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731658984.2600105</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731658984.2600105.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731658984.2600105.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>164.74</v>
       </c>
-      <c r="J32" t="n">
-        <v>164.74</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>164.66</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731658988.834199</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731659001.8886993</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658988.834199.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659001.8886993.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>50.84</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>50.92</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731659004.8937356</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731659007.8632326</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659004.8937356.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659007.8632326.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>50.92</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>50.9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731659007.8811564</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731659011.7522838</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659007.8811564.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659011.7522838.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>50.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>50.845</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731659011.7692108</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731659017.9810967</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659011.7692108.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659017.9810967.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>50.845</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>50.61</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2349999999999994</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731659019.8651974</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731659023.3704476</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659019.8651974.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659023.3704476.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1417</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731659023.4272869</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731659031.6989405</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659023.4272869.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659031.6989405.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1416.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-2.400000000000091</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731659031.8032691</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731659035.0541294</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659031.8032691.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659035.0541294.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1417.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731659035.1752365</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731659038.856734</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659035.1752365.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659038.856734.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1419</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1418.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731659038.87369</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731659050.5936031</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659038.87369.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659050.5936031.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1412</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-6.200000000000045</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -2535,95 +2785,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731659050.609533</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731659050.609533.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731659050.609533.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1412</v>
       </c>
-      <c r="J42" t="n">
-        <v>1412</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1412.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731659053.8974097</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731659053.9941795</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659053.8974097.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659053.9941795.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>60.95</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>61.1</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731659066.106618</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731659068.6101677</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659066.106618.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659068.6101677.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>61.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>61.34</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731659069.0191796</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731659076.1497755</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659069.0191796.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659076.1497755.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>61.34</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>60.95</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731659090.056062</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731659096.4580352</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659090.056062.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659096.4580352.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>58.81</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>58.67</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731659096.8172336</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731659100.1920686</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659096.8172336.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659100.1920686.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>58.69</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>58.07</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.6199999999999974</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731659102.3863451</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731659106.0713334</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659102.3863451.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659106.0713334.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>58.3</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>58.36</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2891,95 +3183,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731659118.717941</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731659118.717941.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731659118.717941.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>57.18</v>
       </c>
-      <c r="J49" t="n">
-        <v>57.18</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>57.2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731659123.3297389</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731659135.6507638</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659123.3297389.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659135.6507638.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>144.7</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>145.3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2987,51 +3291,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731659156.4910684</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731659162.9572084</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659156.4910684.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659162.9572084.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>21.339</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>21.386</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0470000000000006</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3039,95 +3349,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731659184.430856</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731659184.430856.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731659184.430856.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>20.848</v>
       </c>
-      <c r="J52" t="n">
-        <v>20.848</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>20.831</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01699999999999946</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731659195.217949</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731659201.4657438</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659195.217949.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659201.4657438.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>683.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>681.95</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.449999999999932</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -3135,51 +3457,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731659201.7374032</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731659206.1028695</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659201.7374032.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659206.1028695.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>682</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>680.05</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.950000000000045</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3187,95 +3515,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731659212.506953</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731659212.506953.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731659212.506953.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>678.6</v>
       </c>
-      <c r="J55" t="n">
-        <v>678.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>679.2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731659228.0560942</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731659236.924733</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659228.0560942.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659236.924733.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.10008</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.10096</v>
       </c>
-      <c r="K56" t="n">
-        <v>0.0008800000000000058</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
+        <v>0.0008799999999999919</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -3283,51 +3623,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731659239.2864506</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731659246.325788</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659239.2864506.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659246.325788.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>0.10072</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.0007999999999999952</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.79</v>
       </c>
     </row>
@@ -3335,51 +3681,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731659247.6301246</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731659249.246501</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659247.6301246.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659249.246501.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.09926000000000001</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.0006199999999999956</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -3387,51 +3739,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731659256.0635777</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731659264.4893956</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659256.0635777.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659264.4893956.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.6055</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.6039</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.001600000000000046</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3439,51 +3797,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731659273.3692532</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731659284.6369617</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659273.3692532.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659284.6369617.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.6048</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.6017</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.003099999999999992</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -3491,95 +3855,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731659284.6539164</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731659284.6539164.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731659284.6539164.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.6017</v>
       </c>
-      <c r="J61" t="n">
-        <v>0.6017</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.000400000000000067</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731659285.6986885</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731659286.063945</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659285.6986885.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659286.063945.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>3027.05</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>3038.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>11.54999999999973</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731659286.9279697</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731659288.284639</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659286.9279697.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659288.284639.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>3038.15</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>3038.45</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2999999999997272</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3639,51 +4021,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731659288.301569</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731659288.7477067</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659288.301569.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659288.7477067.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>3038.45</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3028.9</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>9.549999999999727</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3691,51 +4079,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731659289.1682107</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731659289.8492863</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659289.1682107.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659289.8492863.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>3034.4</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>3030.85</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>3.550000000000182</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3743,51 +4137,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731659291.2141056</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731659292.0324466</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659291.2141056.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659292.0324466.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>3029</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>3027.55</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.449999999999818</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3795,51 +4195,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731659297.620887</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731659298.7948914</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659297.620887.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659298.7948914.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>3026.9</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>3018.2</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>8.700000000000273</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3847,51 +4253,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731659299.1128497</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731659301.7045753</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659299.1128497.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659301.7045753.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>3022.2</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>3018.3</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>3.899999999999636</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3899,51 +4311,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731659302.3674126</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731659303.1627047</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659302.3674126.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659303.1627047.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>3020.35</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>3021.8</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.450000000000273</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3951,51 +4369,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731659305.4307573</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731659306.4448457</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659305.4307573.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659306.4448457.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>3025.4</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>2.349999999999909</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4003,51 +4427,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731659306.50955</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731659308.4196916</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659306.50955.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659308.4196916.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>3026.45</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>3012.35</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>14.09999999999991</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -4055,51 +4485,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731659322.4897964</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731659326.5464952</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659322.4897964.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659326.5464952.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>34.88</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>34.795</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.08500000000000085</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -4107,51 +4543,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731659326.7388976</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731659330.767872</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659326.7388976.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659330.767872.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>34.785</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>34.84</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.05500000000000682</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -4159,51 +4601,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731659330.9021869</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731659336.6756248</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659330.9021869.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659336.6756248.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>34.86</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>34.85</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4211,51 +4659,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731659336.693548</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731659337.8652468</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659336.693548.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659337.8652468.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>34.85</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>34.71</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4263,51 +4717,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731659341.3084495</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731659346.8181174</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659341.3084495.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659346.8181174.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>34.935</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>34.41</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.5250000000000057</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4391,19 +4851,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.600000000000364</v>
+        <v>-4.200000000000273</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6000000000000606</v>
+        <v>-0.7000000000000455</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="4">
@@ -4457,19 +4917,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1200000000000045</v>
+        <v>-0.03999999999999204</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02400000000000091</v>
+        <v>-0.007999999999998408</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07000000000000006</v>
+        <v>-0.02000000000000006</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -4479,19 +4939,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.699999999999989</v>
+        <v>2.799999999999983</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6749999999999972</v>
+        <v>0.6999999999999957</v>
       </c>
       <c r="E7" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -4523,19 +4983,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4199999999999946</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1049999999999986</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
@@ -4589,19 +5049,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5000000000001137</v>
+        <v>-0.09999999999990905</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1666666666667046</v>
+        <v>-0.03333333333330302</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07999999999999999</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -4611,13 +5071,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007000000000000062</v>
+        <v>0.0006999999999999923</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002333333333333354</v>
+        <v>0.0002333333333333308</v>
       </c>
       <c r="E13" t="n">
         <v>0.71</v>
@@ -4633,19 +5093,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001499999999999946</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0004999999999999819</v>
+        <v>-0.0003666666666666263</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>-0.18</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
@@ -4699,19 +5159,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0470000000000006</v>
+        <v>0.06400000000000006</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0235000000000003</v>
+        <v>0.03200000000000003</v>
       </c>
       <c r="E17" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
@@ -4765,19 +5225,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.004999999999999005</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.004999999999999005</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="21">
